--- a/Practice/test.xlsx
+++ b/Practice/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,45 +468,3521 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sydney â€“ 3Â March 2020</t>
+          <t>5 December 2006</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>1717</v>
+        <v>1555</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0314502038439138</v>
+        <v>0.02442159383033419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sydney â€“ 2Â March 2021</t>
+          <t>3 October 2006</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>73</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01599526066350711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2 December 2014</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01596638655462185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7 November 2006</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01713709677419355</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 May 2014</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1292</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.006187161639597835</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4 March 2014</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1388</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01295896328293736</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4 February 2014</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1374</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.007272727272727273</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1 April 2014</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1197</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.005008347245409015</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1 December 2015</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1322</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01360544217687075</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1 July 2014</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1322</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01662887377173091</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5 August 2014</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58</v>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01122019635343618</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3 June 2014</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1157</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.008635578583765112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7 October 2014</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1162</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01461736887360275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3 February 2015</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1729</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.009826589595375723</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2 September 2014</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>52</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1265</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.008688783570300158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4 November 2014</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>53</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1460</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01437371663244353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3 March 2015</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1569</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7 April 2015</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01396276595744681</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5 May 2015</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01414514145141451</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2 June 2015</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.008752735229759299</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3 December 2019</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>77</v>
+      </c>
+      <c r="C22" t="n">
+        <v>47</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1652</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01814882032667877</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6 December 2016</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>39</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1466</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.00136332651670075</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3 December 2013</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.004212299915754001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4 December 2012</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13</v>
+      </c>
+      <c r="E25" t="n">
+        <v>885</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01467268623024831</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5 December 2017</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>58</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.007926829268292683</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2 April 2019</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>122</v>
+      </c>
+      <c r="C27" t="n">
+        <v>61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2433</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02506162695152013</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5 February 2019</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>124</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61</v>
+      </c>
+      <c r="D28" t="n">
+        <v>63</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2596</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02425876010781671</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5 March 2019</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>120</v>
+      </c>
+      <c r="C29" t="n">
+        <v>54</v>
+      </c>
+      <c r="D29" t="n">
+        <v>66</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2464</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02677484787018256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7 February 2012</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>53</v>
+      </c>
+      <c r="C30" t="n">
+        <v>53</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1531</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1 May 2012</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>69</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38</v>
+      </c>
+      <c r="D31" t="n">
+        <v>31</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1403</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02207977207977208</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6 March 2012</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>77</v>
+      </c>
+      <c r="C32" t="n">
+        <v>53</v>
+      </c>
+      <c r="D32" t="n">
+        <v>24</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1415</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3 April 2012</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>66</v>
+      </c>
+      <c r="C33" t="n">
+        <v>45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1308</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0160427807486631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>5 June 2012</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>64</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19</v>
+      </c>
+      <c r="D34" t="n">
+        <v>45</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.03496503496503497</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7 August 2012</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>80</v>
+      </c>
+      <c r="C35" t="n">
+        <v>42</v>
+      </c>
+      <c r="D35" t="n">
+        <v>38</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1612</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02355858648481091</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5 February 2008</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>53</v>
+      </c>
+      <c r="D36" t="n">
+        <v>21</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1886</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01112877583465819</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3 July 2012</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1178</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01187446988973707</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4 March 2008</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>53</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1539</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.004545454545454545</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6 May 2008</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>63</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02306079664570231</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3 June 2008</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>57</v>
+      </c>
+      <c r="C40" t="n">
+        <v>41</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1406</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01137171286425018</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2 February 2021</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2183</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.01923076923076923</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1 April 2008</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>59</v>
+      </c>
+      <c r="C42" t="n">
+        <v>35</v>
+      </c>
+      <c r="D42" t="n">
+        <v>24</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0153747597693786</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4 February 2020</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>71</v>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01773835920177384</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>18 March 2020</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1482</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.008766014834794335</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3 March 2020</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>90</v>
+      </c>
+      <c r="C45" t="n">
+        <v>36</v>
+      </c>
+      <c r="D45" t="n">
+        <v>54</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.03314917127071823</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7 April 2020</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>95</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>51</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02265659706796979</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5 May 2020</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>142</v>
+      </c>
+      <c r="C47" t="n">
+        <v>57</v>
+      </c>
+      <c r="D47" t="n">
+        <v>85</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03321610003907777</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2 June 2020</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>106</v>
+      </c>
+      <c r="C48" t="n">
+        <v>39</v>
+      </c>
+      <c r="D48" t="n">
+        <v>67</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1879</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03563829787234043</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7 July 2020</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>96</v>
+      </c>
+      <c r="C49" t="n">
+        <v>35</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1787</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03411633109619687</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4 August 2020</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>122</v>
+      </c>
+      <c r="C50" t="n">
+        <v>60</v>
+      </c>
+      <c r="D50" t="n">
+        <v>62</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2407</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02574750830564784</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1 September 2020</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>83</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51</v>
+      </c>
+      <c r="D51" t="n">
+        <v>32</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01686874011597259</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6 October 2020</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>80</v>
+      </c>
+      <c r="C52" t="n">
+        <v>70</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2178</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.004589261128958238</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3 November 2020</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>62</v>
+      </c>
+      <c r="C53" t="n">
+        <v>87</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2211</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.01130198915009042</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7 May 2019</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>85</v>
+      </c>
+      <c r="C54" t="n">
+        <v>47</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2086</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01820795400095831</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4 June 2019</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>77</v>
+      </c>
+      <c r="C55" t="n">
+        <v>47</v>
+      </c>
+      <c r="D55" t="n">
+        <v>30</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2131</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01407129455909944</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3 September 2019</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>78</v>
+      </c>
+      <c r="C56" t="n">
+        <v>35</v>
+      </c>
+      <c r="D56" t="n">
+        <v>43</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.02735368956743003</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2 July 2019</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>84</v>
+      </c>
+      <c r="C57" t="n">
+        <v>63</v>
+      </c>
+      <c r="D57" t="n">
+        <v>21</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2065</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01016456921587609</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6 August 2019</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>79</v>
+      </c>
+      <c r="C58" t="n">
+        <v>60</v>
+      </c>
+      <c r="D58" t="n">
+        <v>19</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2051</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.009259259259259259</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5 November 2019</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>97</v>
+      </c>
+      <c r="C59" t="n">
+        <v>66</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01441190144119014</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1 October 2019</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>108</v>
+      </c>
+      <c r="C60" t="n">
+        <v>70</v>
+      </c>
+      <c r="D60" t="n">
+        <v>38</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2226</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01706331387516839</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2 February 2016</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>75</v>
+      </c>
+      <c r="C61" t="n">
+        <v>44</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1826</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01696770662287904</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7 June 2016</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>38</v>
+      </c>
+      <c r="D62" t="n">
+        <v>25</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01550868486352357</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1 March 2016</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>73</v>
+      </c>
+      <c r="C63" t="n">
+        <v>30</v>
+      </c>
+      <c r="D63" t="n">
+        <v>43</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1547</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3 May 2016</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>60</v>
+      </c>
+      <c r="C64" t="n">
+        <v>46</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.00835820895522388</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5 April 2016</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>60</v>
+      </c>
+      <c r="C65" t="n">
+        <v>49</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1783</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.00616591928251121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>5 July 2016</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>52</v>
+      </c>
+      <c r="C66" t="n">
+        <v>29</v>
+      </c>
+      <c r="D66" t="n">
+        <v>23</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1523</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01509186351706037</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6 September 2016</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>56</v>
+      </c>
+      <c r="C67" t="n">
+        <v>36</v>
+      </c>
+      <c r="D67" t="n">
+        <v>20</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01175778953556731</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4 October 2016</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>60</v>
+      </c>
+      <c r="C68" t="n">
+        <v>54</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1858</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.003227541689080151</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2 August 2016</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>39</v>
+      </c>
+      <c r="D69" t="n">
+        <v>29</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1831</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0158296943231441</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5 February 2013</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>46</v>
+      </c>
+      <c r="C70" t="n">
+        <v>48</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1436</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.00139178844815588</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2 April 2013</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>39</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1125</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.002664298401420959</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1 November 2016</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>45</v>
+      </c>
+      <c r="C72" t="n">
+        <v>41</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.002271436683702442</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5 March 2013</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>40</v>
+      </c>
+      <c r="C73" t="n">
+        <v>42</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.001502629601803156</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7 May 2013</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>39</v>
+      </c>
+      <c r="C74" t="n">
+        <v>41</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1420</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.001407459535538353</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4 June 2013</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>45</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1225</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01223491027732463</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2 July 2013</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>49</v>
+      </c>
+      <c r="C76" t="n">
+        <v>27</v>
+      </c>
+      <c r="D76" t="n">
+        <v>22</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1168</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01881950384944397</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>6 August 2013</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>43</v>
+      </c>
+      <c r="C77" t="n">
+        <v>27</v>
+      </c>
+      <c r="D77" t="n">
+        <v>16</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1237</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01292407108239095</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3 September 2013</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>48</v>
+      </c>
+      <c r="C78" t="n">
+        <v>45</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.002172338884866039</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1 October 2013</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>25</v>
+      </c>
+      <c r="C79" t="n">
+        <v>34</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.008595988538681949</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>5 November 2013</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>46</v>
+      </c>
+      <c r="C80" t="n">
+        <v>34</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.009223674096848577</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4 September 2012</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>78</v>
+      </c>
+      <c r="C81" t="n">
+        <v>44</v>
+      </c>
+      <c r="D81" t="n">
+        <v>34</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1554</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.02186495176848875</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2 October 2012</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>53</v>
+      </c>
+      <c r="C82" t="n">
+        <v>34</v>
+      </c>
+      <c r="D82" t="n">
+        <v>19</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01506740681998414</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7 March 2017</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>37</v>
+      </c>
+      <c r="C83" t="n">
+        <v>49</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.007312614259597806</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6 November 2012</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>36</v>
+      </c>
+      <c r="C84" t="n">
+        <v>36</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1174</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7 February 2017</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>50</v>
+      </c>
+      <c r="C85" t="n">
+        <v>53</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.001772002362669817</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4 April 2017</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>69</v>
+      </c>
+      <c r="C86" t="n">
+        <v>71</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.0009847365829640572</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4 July 2017</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>45</v>
+      </c>
+      <c r="C87" t="n">
+        <v>59</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.00823045267489712</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2 May 2017</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>34</v>
+      </c>
+      <c r="C88" t="n">
+        <v>45</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.005792522380200105</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>6 June 2017</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>63</v>
+      </c>
+      <c r="C89" t="n">
+        <v>52</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1755</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.006264236902050114</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1 August 2017</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>58</v>
+      </c>
+      <c r="C90" t="n">
+        <v>59</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.0005274261603375527</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3 October 2017</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>54</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1934</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.002583979328165375</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7 November 2017</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>60</v>
+      </c>
+      <c r="C92" t="n">
+        <v>64</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.00199700449326011</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>5 September 2017</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>40</v>
+      </c>
+      <c r="C93" t="n">
+        <v>64</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.0145366444579043</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1 February 2011</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>50</v>
+      </c>
+      <c r="C94" t="n">
+        <v>49</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0006418485237483953</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>5 April 2011</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>49</v>
+      </c>
+      <c r="C95" t="n">
+        <v>45</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1156</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.003457216940363008</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3 May 2011</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>48</v>
+      </c>
+      <c r="C96" t="n">
+        <v>45</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.001997336884154461</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1 March 2011</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>51</v>
+      </c>
+      <c r="C97" t="n">
+        <v>44</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1372</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.005098324836125273</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7 June 2011</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>54</v>
+      </c>
+      <c r="C98" t="n">
+        <v>33</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1297</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.01617873651771957</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5 July 2011</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>65</v>
+      </c>
+      <c r="C99" t="n">
+        <v>45</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1301</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.01536098310291859</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6 September 2011</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>111</v>
+      </c>
+      <c r="C100" t="n">
+        <v>75</v>
+      </c>
+      <c r="D100" t="n">
+        <v>36</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.01918976545842218</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2 August 2011</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>71</v>
+      </c>
+      <c r="C101" t="n">
+        <v>42</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1632</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.01775872627066748</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4 October 2011</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>67</v>
+      </c>
+      <c r="C102" t="n">
+        <v>42</v>
+      </c>
+      <c r="D102" t="n">
+        <v>25</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1619</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0154320987654321</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1 November 2011</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>60</v>
+      </c>
+      <c r="C103" t="n">
+        <v>54</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.003554502369668246</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1 July 2008</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>82</v>
+      </c>
+      <c r="C104" t="n">
+        <v>27</v>
+      </c>
+      <c r="D104" t="n">
         <v>55</v>
       </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2213</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.006778129236330773</v>
+      <c r="E104" t="n">
+        <v>1469</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.03741496598639456</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>5 August 2008</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>89</v>
+      </c>
+      <c r="C105" t="n">
+        <v>25</v>
+      </c>
+      <c r="D105" t="n">
+        <v>64</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1327</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.04819277108433735</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2 September 2008</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>76</v>
+      </c>
+      <c r="C106" t="n">
+        <v>35</v>
+      </c>
+      <c r="D106" t="n">
+        <v>41</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1673</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.02449223416965353</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>7 October 2008</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>125</v>
+      </c>
+      <c r="C107" t="n">
+        <v>31</v>
+      </c>
+      <c r="D107" t="n">
+        <v>94</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1869</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.05026737967914439</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4 November 2008</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>90</v>
+      </c>
+      <c r="C108" t="n">
+        <v>21</v>
+      </c>
+      <c r="D108" t="n">
+        <v>69</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1767</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.03902714932126697</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6 February 2018</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>63</v>
+      </c>
+      <c r="C109" t="n">
+        <v>82</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-19</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2034</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.009336609336609337</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6 March 2018</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>40</v>
+      </c>
+      <c r="C110" t="n">
+        <v>48</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.004910988336402701</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3 July 2018</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>73</v>
+      </c>
+      <c r="C111" t="n">
+        <v>83</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2365</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.00422654268808115</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3 April 2018</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>73</v>
+      </c>
+      <c r="C112" t="n">
+        <v>79</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.002810304449648712</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1 May 2018</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>53</v>
+      </c>
+      <c r="C113" t="n">
+        <v>65</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.006015037593984963</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>5 June 2018</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>80</v>
+      </c>
+      <c r="C114" t="n">
+        <v>68</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2143</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.005597014925373134</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4 September 2018</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>65</v>
+      </c>
+      <c r="C115" t="n">
+        <v>64</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1926</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0005189413596263622</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2 October 2018</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>87</v>
+      </c>
+      <c r="C116" t="n">
+        <v>89</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2545</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.0007855459544383347</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7 August 2018</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>59</v>
+      </c>
+      <c r="C117" t="n">
+        <v>62</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2138</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.001402524544179523</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>6 December 2011</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>66</v>
+      </c>
+      <c r="C118" t="n">
+        <v>40</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.01827125790583275</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>6 November 2018</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>93</v>
+      </c>
+      <c r="C119" t="n">
+        <v>80</v>
+      </c>
+      <c r="D119" t="n">
+        <v>13</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2306</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.005635023840485479</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1 December 2020</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>54</v>
+      </c>
+      <c r="C120" t="n">
+        <v>49</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.002839295854628052</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2 March 2021</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>55</v>
+      </c>
+      <c r="C121" t="n">
+        <v>69</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2121</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.006597549481621112</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2 December 2008</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>58</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15</v>
+      </c>
+      <c r="D122" t="n">
+        <v>43</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1599</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.026875</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3 March 2009</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>76</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29</v>
+      </c>
+      <c r="D123" t="n">
+        <v>47</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1586</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.02961562696912413</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7 April 2009</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>60</v>
+      </c>
+      <c r="C124" t="n">
+        <v>34</v>
+      </c>
+      <c r="D124" t="n">
+        <v>26</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.02001539645881447</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3 February 2009</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>93</v>
+      </c>
+      <c r="C125" t="n">
+        <v>35</v>
+      </c>
+      <c r="D125" t="n">
+        <v>58</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1717</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.03376018626309663</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2 June 2009</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>63</v>
+      </c>
+      <c r="C126" t="n">
+        <v>45</v>
+      </c>
+      <c r="D126" t="n">
+        <v>18</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1469</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.01224489795918367</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4 August 2009</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>47</v>
+      </c>
+      <c r="C127" t="n">
+        <v>61</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.01163757273482959</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>5 May 2009</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>71</v>
+      </c>
+      <c r="C128" t="n">
+        <v>56</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.009596928982725527</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7 July 2009</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>41</v>
+      </c>
+      <c r="C129" t="n">
+        <v>55</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1378</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.01015228426395939</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1 September 2009</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>49</v>
+      </c>
+      <c r="C130" t="n">
+        <v>56</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1460</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.004791238877481177</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>6 October 2009</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>61</v>
+      </c>
+      <c r="C131" t="n">
+        <v>51</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.006480881399870382</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3 November 2009</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>42</v>
+      </c>
+      <c r="C132" t="n">
+        <v>42</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1216</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4 December 2018</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>75</v>
+      </c>
+      <c r="C133" t="n">
+        <v>50</v>
+      </c>
+      <c r="D133" t="n">
+        <v>25</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.01256281407035176</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>6 February 2007</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>74</v>
+      </c>
+      <c r="C134" t="n">
+        <v>51</v>
+      </c>
+      <c r="D134" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.01434809731752963</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>6 March 2007</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>77</v>
+      </c>
+      <c r="C135" t="n">
+        <v>39</v>
+      </c>
+      <c r="D135" t="n">
+        <v>38</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1459</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.02602739726027397</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3 April 2007</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>57</v>
+      </c>
+      <c r="C136" t="n">
+        <v>48</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0067618332081142</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1 May 2007</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>61</v>
+      </c>
+      <c r="C137" t="n">
+        <v>41</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.01328021248339973</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>5 June 2007</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>47</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1466</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.002044989775051125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4 September 2007</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>85</v>
+      </c>
+      <c r="C139" t="n">
+        <v>55</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1887</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.01588983050847458</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3 July 2007</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>67</v>
+      </c>
+      <c r="C140" t="n">
+        <v>61</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.003331482509716824</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7 August 2007</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>80</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.01819284414796847</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2 October 2007</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>76</v>
+      </c>
+      <c r="C142" t="n">
+        <v>51</v>
+      </c>
+      <c r="D142" t="n">
+        <v>25</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1662</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.01503307276007216</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2 March 2010</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>49</v>
+      </c>
+      <c r="C143" t="n">
+        <v>47</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1452</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.001376462491397109</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>6 November 2007</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>54</v>
+      </c>
+      <c r="C144" t="n">
+        <v>47</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.00431832202344232</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2 February 2010</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>54</v>
+      </c>
+      <c r="C145" t="n">
+        <v>45</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1379</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.006521739130434782</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>6 April 2010</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>18</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>910</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.009879253567508232</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1 June 2010</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>59</v>
+      </c>
+      <c r="C147" t="n">
+        <v>36</v>
+      </c>
+      <c r="D147" t="n">
+        <v>23</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1353</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01698670605612999</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>6 July 2010</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>51</v>
+      </c>
+      <c r="C148" t="n">
+        <v>33</v>
+      </c>
+      <c r="D148" t="n">
+        <v>18</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1412</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.01273885350318471</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4 May 2010</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>59</v>
+      </c>
+      <c r="C149" t="n">
+        <v>53</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1331</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.004504504504504504</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>3 August 2010</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>55</v>
+      </c>
+      <c r="C150" t="n">
+        <v>49</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1584</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.003785488958990536</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2 November 2010</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>52</v>
+      </c>
+      <c r="C151" t="n">
+        <v>51</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1616</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0006184291898577613</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>5 October 2010</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>56</v>
+      </c>
+      <c r="C152" t="n">
+        <v>46</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1462</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.00683526999316473</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>7 July 2015</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>49</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.0006165228113440197</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>7 September 2010</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>52</v>
+      </c>
+      <c r="C154" t="n">
+        <v>58</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.003944773175542407</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>4 August 2015</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>41</v>
+      </c>
+      <c r="C155" t="n">
+        <v>42</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.0006119951040391676</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>6 October 2015</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>58</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50</v>
+      </c>
+      <c r="D156" t="n">
+        <v>8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1601</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.004993757802746567</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1 September 2015</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>52</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30</v>
+      </c>
+      <c r="D157" t="n">
+        <v>22</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1514</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.01452145214521452</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>3 November 2015</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>60</v>
+      </c>
+      <c r="C158" t="n">
+        <v>29</v>
+      </c>
+      <c r="D158" t="n">
+        <v>31</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1763</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.01757369614512472</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1 December 2009</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>48</v>
+      </c>
+      <c r="C159" t="n">
+        <v>51</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1383</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.002167630057803468</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4 December 2007</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>65</v>
+      </c>
+      <c r="C160" t="n">
+        <v>38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1447</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.01864640883977901</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>7 December 2010</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>27</v>
+      </c>
+      <c r="C161" t="n">
+        <v>32</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.004149377593360996</v>
       </c>
     </row>
   </sheetData>

--- a/Practice/test.xlsx
+++ b/Practice/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,24 +450,44 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Number of negative words including unemploy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Number of positive words</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Net negativity count</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Total token count</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Net negativity score</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Net negativity score with unemploy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage negative</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage positive</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -477,16 +497,28 @@
         <v>73</v>
       </c>
       <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
         <v>46</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1687</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.01599526066350711</v>
+      <c r="G2" t="n">
+        <v>0.01600474214582098</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01719027860106698</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04327208061647896</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02726733847065797</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +529,28 @@
         <v>84</v>
       </c>
       <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
         <v>50</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>34</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1983</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.01713709677419355</v>
+      <c r="G3" t="n">
+        <v>0.01714573877962683</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01815431164901664</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04236006051437216</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02521432173474534</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +561,28 @@
         <v>78</v>
       </c>
       <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>38</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1555</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.02442159383033419</v>
+      <c r="G4" t="n">
+        <v>0.02443729903536978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02508038585209003</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.05016077170418006</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02572347266881029</v>
       </c>
     </row>
     <row r="5">
@@ -537,16 +593,28 @@
         <v>74</v>
       </c>
       <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>23</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1602</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.01434809731752963</v>
+      <c r="G5" t="n">
+        <v>0.01435705368289638</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0149812734082397</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04619225967540574</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.03183520599250936</v>
       </c>
     </row>
     <row r="6">
@@ -557,16 +625,28 @@
         <v>77</v>
       </c>
       <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>38</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1459</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.02602739726027397</v>
+      <c r="G6" t="n">
+        <v>0.02604523646333105</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02673063742289239</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05277587388622344</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02673063742289239</v>
       </c>
     </row>
     <row r="7">
@@ -577,16 +657,28 @@
         <v>57</v>
       </c>
       <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
         <v>48</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>9</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1330</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.0067618332081142</v>
+      <c r="G7" t="n">
+        <v>0.006766917293233083</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.007518796992481203</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03609022556390978</v>
       </c>
     </row>
     <row r="8">
@@ -597,16 +689,28 @@
         <v>61</v>
       </c>
       <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1505</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.01328021248339973</v>
+      <c r="G8" t="n">
+        <v>0.0132890365448505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01528239202657807</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.04053156146179402</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02724252491694352</v>
       </c>
     </row>
     <row r="9">
@@ -617,16 +721,28 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1466</v>
       </c>
-      <c r="F9" t="n">
-        <v>-0.002044989775051125</v>
+      <c r="G9" t="n">
+        <v>-0.002046384720327421</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.001364256480218281</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03206002728512961</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03410641200545703</v>
       </c>
     </row>
     <row r="10">
@@ -637,16 +753,28 @@
         <v>67</v>
       </c>
       <c r="C10" t="n">
+        <v>69</v>
+      </c>
+      <c r="D10" t="n">
         <v>61</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>6</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1800</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.003331482509716824</v>
+      <c r="G10" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.004444444444444444</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03722222222222222</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.03388888888888889</v>
       </c>
     </row>
     <row r="11">
@@ -657,16 +785,28 @@
         <v>80</v>
       </c>
       <c r="C11" t="n">
+        <v>83</v>
+      </c>
+      <c r="D11" t="n">
         <v>50</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>30</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1648</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.01819284414796847</v>
+      <c r="G11" t="n">
+        <v>0.01820388349514563</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0200242718446602</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.04854368932038835</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03033980582524272</v>
       </c>
     </row>
     <row r="12">
@@ -677,16 +817,28 @@
         <v>85</v>
       </c>
       <c r="C12" t="n">
+        <v>87</v>
+      </c>
+      <c r="D12" t="n">
         <v>55</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1887</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.01588983050847458</v>
+      <c r="G12" t="n">
+        <v>0.01589825119236884</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01695813460519343</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.04504504504504504</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0291467938526762</v>
       </c>
     </row>
     <row r="13">
@@ -697,16 +849,28 @@
         <v>76</v>
       </c>
       <c r="C13" t="n">
+        <v>78</v>
+      </c>
+      <c r="D13" t="n">
         <v>51</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1662</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.01503307276007216</v>
+      <c r="G13" t="n">
+        <v>0.01504211793020457</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01624548736462094</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0457280385078219</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.03068592057761733</v>
       </c>
     </row>
     <row r="14">
@@ -717,16 +881,28 @@
         <v>54</v>
       </c>
       <c r="C14" t="n">
+        <v>55</v>
+      </c>
+      <c r="D14" t="n">
         <v>47</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1620</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.00431832202344232</v>
+      <c r="G14" t="n">
+        <v>0.004320987654320987</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.004938271604938272</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02901234567901234</v>
       </c>
     </row>
     <row r="15">
@@ -737,16 +913,28 @@
         <v>65</v>
       </c>
       <c r="C15" t="n">
+        <v>65</v>
+      </c>
+      <c r="D15" t="n">
         <v>38</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>27</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1447</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.01864640883977901</v>
+      <c r="G15" t="n">
+        <v>0.01865929509329647</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01865929509329647</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04492052522460262</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02626123013130615</v>
       </c>
     </row>
     <row r="16">
@@ -757,16 +945,28 @@
         <v>74</v>
       </c>
       <c r="C16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
         <v>53</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>21</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1886</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.01112877583465819</v>
+      <c r="G16" t="n">
+        <v>0.01113467656415695</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01166489925768823</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03923647932131495</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02810180275715801</v>
       </c>
     </row>
     <row r="17">
@@ -777,16 +977,28 @@
         <v>53</v>
       </c>
       <c r="C17" t="n">
+        <v>54</v>
+      </c>
+      <c r="D17" t="n">
         <v>46</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1539</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.004545454545454545</v>
+      <c r="G17" t="n">
+        <v>0.004548408057179987</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.005198180636777128</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.03443794671864847</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02988953866146848</v>
       </c>
     </row>
     <row r="18">
@@ -797,16 +1009,28 @@
         <v>59</v>
       </c>
       <c r="C18" t="n">
+        <v>59</v>
+      </c>
+      <c r="D18" t="n">
         <v>35</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>24</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1560</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.0153747597693786</v>
+      <c r="G18" t="n">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03782051282051282</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02243589743589744</v>
       </c>
     </row>
     <row r="19">
@@ -817,16 +1041,28 @@
         <v>63</v>
       </c>
       <c r="C19" t="n">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n">
         <v>30</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>33</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1430</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.02306079664570231</v>
+      <c r="G19" t="n">
+        <v>0.02307692307692308</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02307692307692308</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.04405594405594405</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="20">
@@ -837,16 +1073,28 @@
         <v>57</v>
       </c>
       <c r="C20" t="n">
+        <v>58</v>
+      </c>
+      <c r="D20" t="n">
         <v>41</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1406</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.01137171286425018</v>
+      <c r="G20" t="n">
+        <v>0.01137980085348506</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01209103840682788</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02916073968705548</v>
       </c>
     </row>
     <row r="21">
@@ -857,16 +1105,28 @@
         <v>82</v>
       </c>
       <c r="C21" t="n">
+        <v>83</v>
+      </c>
+      <c r="D21" t="n">
         <v>27</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>55</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1469</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.03741496598639456</v>
+      <c r="G21" t="n">
+        <v>0.03744043567052417</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0381211708645337</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.05582028590878148</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01837985023825732</v>
       </c>
     </row>
     <row r="22">
@@ -877,16 +1137,28 @@
         <v>89</v>
       </c>
       <c r="C22" t="n">
+        <v>91</v>
+      </c>
+      <c r="D22" t="n">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>64</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1327</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.04819277108433735</v>
+      <c r="G22" t="n">
+        <v>0.04822908816880181</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04973624717407687</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.06706857573474001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01883948756593821</v>
       </c>
     </row>
     <row r="23">
@@ -897,16 +1169,28 @@
         <v>76</v>
       </c>
       <c r="C23" t="n">
+        <v>78</v>
+      </c>
+      <c r="D23" t="n">
         <v>35</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>41</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1673</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.02449223416965353</v>
+      <c r="G23" t="n">
+        <v>0.02450687387925882</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02570233114166168</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.04542737597130903</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02092050209205021</v>
       </c>
     </row>
     <row r="24">
@@ -917,16 +1201,28 @@
         <v>125</v>
       </c>
       <c r="C24" t="n">
+        <v>126</v>
+      </c>
+      <c r="D24" t="n">
         <v>31</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>94</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1869</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.05026737967914439</v>
+      <c r="G24" t="n">
+        <v>0.05029427501337614</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05082932049224184</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06688068485821295</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01658640984483681</v>
       </c>
     </row>
     <row r="25">
@@ -937,16 +1233,28 @@
         <v>90</v>
       </c>
       <c r="C25" t="n">
+        <v>90</v>
+      </c>
+      <c r="D25" t="n">
         <v>21</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>69</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1767</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.03902714932126697</v>
+      <c r="G25" t="n">
+        <v>0.03904923599320883</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03904923599320883</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.05093378607809847</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01188455008488964</v>
       </c>
     </row>
     <row r="26">
@@ -957,16 +1265,28 @@
         <v>58</v>
       </c>
       <c r="C26" t="n">
+        <v>60</v>
+      </c>
+      <c r="D26" t="n">
         <v>15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>43</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1599</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.026875</v>
+      <c r="G26" t="n">
+        <v>0.02689180737961226</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02814258911819887</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03627267041901188</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.009380863039399626</v>
       </c>
     </row>
     <row r="27">
@@ -977,16 +1297,28 @@
         <v>93</v>
       </c>
       <c r="C27" t="n">
+        <v>94</v>
+      </c>
+      <c r="D27" t="n">
         <v>35</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>58</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1717</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.03376018626309663</v>
+      <c r="G27" t="n">
+        <v>0.0337798485730926</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0343622597553873</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.05416423995340711</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0203843913803145</v>
       </c>
     </row>
     <row r="28">
@@ -997,16 +1329,28 @@
         <v>76</v>
       </c>
       <c r="C28" t="n">
+        <v>78</v>
+      </c>
+      <c r="D28" t="n">
         <v>29</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>47</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1586</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.02961562696912413</v>
+      <c r="G28" t="n">
+        <v>0.0296343001261034</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0308953341740227</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.04791929382093316</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01828499369482976</v>
       </c>
     </row>
     <row r="29">
@@ -1017,16 +1361,28 @@
         <v>60</v>
       </c>
       <c r="C29" t="n">
+        <v>63</v>
+      </c>
+      <c r="D29" t="n">
         <v>34</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>26</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1298</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.02001539645881447</v>
+      <c r="G29" t="n">
+        <v>0.02003081664098613</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02234206471494607</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.04622496147919877</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.02619414483821263</v>
       </c>
     </row>
     <row r="30">
@@ -1037,16 +1393,28 @@
         <v>71</v>
       </c>
       <c r="C30" t="n">
+        <v>76</v>
+      </c>
+      <c r="D30" t="n">
         <v>56</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1562</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.009596928982725527</v>
+      <c r="G30" t="n">
+        <v>0.009603072983354673</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01280409731113956</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.03585147247119078</v>
       </c>
     </row>
     <row r="31">
@@ -1057,16 +1425,28 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
+        <v>64</v>
+      </c>
+      <c r="D31" t="n">
         <v>45</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>18</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1469</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.01224489795918367</v>
+      <c r="G31" t="n">
+        <v>0.01225323349217155</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01293396868618108</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.04288631722260041</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.03063308373042886</v>
       </c>
     </row>
     <row r="32">
@@ -1077,16 +1457,28 @@
         <v>41</v>
       </c>
       <c r="C32" t="n">
+        <v>43</v>
+      </c>
+      <c r="D32" t="n">
         <v>55</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-14</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1378</v>
       </c>
-      <c r="F32" t="n">
-        <v>-0.01015228426395939</v>
+      <c r="G32" t="n">
+        <v>-0.01015965166908563</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.008708272859216255</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02975326560232221</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03991291727140784</v>
       </c>
     </row>
     <row r="33">
@@ -1097,16 +1489,28 @@
         <v>47</v>
       </c>
       <c r="C33" t="n">
+        <v>48</v>
+      </c>
+      <c r="D33" t="n">
         <v>61</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>-14</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1202</v>
       </c>
-      <c r="F33" t="n">
-        <v>-0.01163757273482959</v>
+      <c r="G33" t="n">
+        <v>-0.01164725457570715</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.0108153078202995</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03910149750415973</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.05074875207986689</v>
       </c>
     </row>
     <row r="34">
@@ -1117,16 +1521,28 @@
         <v>49</v>
       </c>
       <c r="C34" t="n">
+        <v>51</v>
+      </c>
+      <c r="D34" t="n">
         <v>56</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>-7</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1460</v>
       </c>
-      <c r="F34" t="n">
-        <v>-0.004791238877481177</v>
+      <c r="G34" t="n">
+        <v>-0.004794520547945206</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.003424657534246575</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03356164383561644</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.03835616438356165</v>
       </c>
     </row>
     <row r="35">
@@ -1137,16 +1553,28 @@
         <v>61</v>
       </c>
       <c r="C35" t="n">
+        <v>63</v>
+      </c>
+      <c r="D35" t="n">
         <v>51</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>10</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1542</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.006480881399870382</v>
+      <c r="G35" t="n">
+        <v>0.00648508430609598</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.007782101167315175</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.03955901426718547</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.03307392996108949</v>
       </c>
     </row>
     <row r="36">
@@ -1157,16 +1585,28 @@
         <v>42</v>
       </c>
       <c r="C36" t="n">
+        <v>43</v>
+      </c>
+      <c r="D36" t="n">
         <v>42</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1216</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0008223684210526315</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03453947368421053</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03453947368421053</v>
       </c>
     </row>
     <row r="37">
@@ -1177,16 +1617,28 @@
         <v>48</v>
       </c>
       <c r="C37" t="n">
+        <v>52</v>
+      </c>
+      <c r="D37" t="n">
         <v>51</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>-3</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>1383</v>
       </c>
-      <c r="F37" t="n">
-        <v>-0.002167630057803468</v>
+      <c r="G37" t="n">
+        <v>-0.002169197396963124</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0007230657989877079</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.03470715835140998</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0368763557483731</v>
       </c>
     </row>
     <row r="38">
@@ -1197,16 +1649,28 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
+        <v>58</v>
+      </c>
+      <c r="D38" t="n">
         <v>45</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>9</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>1379</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.006521739130434782</v>
+      <c r="G38" t="n">
+        <v>0.006526468455402465</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.009427121102248005</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03915881073241479</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03263234227701232</v>
       </c>
     </row>
     <row r="39">
@@ -1217,16 +1681,28 @@
         <v>49</v>
       </c>
       <c r="C39" t="n">
+        <v>52</v>
+      </c>
+      <c r="D39" t="n">
         <v>47</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>1452</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.001376462491397109</v>
+      <c r="G39" t="n">
+        <v>0.001377410468319559</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.003443526170798898</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0337465564738292</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.03236914600550964</v>
       </c>
     </row>
     <row r="40">
@@ -1237,16 +1713,28 @@
         <v>18</v>
       </c>
       <c r="C40" t="n">
+        <v>19</v>
+      </c>
+      <c r="D40" t="n">
         <v>27</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-9</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>910</v>
       </c>
-      <c r="F40" t="n">
-        <v>-0.009879253567508232</v>
+      <c r="G40" t="n">
+        <v>-0.00989010989010989</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.008791208791208791</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01978021978021978</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.02967032967032967</v>
       </c>
     </row>
     <row r="41">
@@ -1257,16 +1745,28 @@
         <v>59</v>
       </c>
       <c r="C41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D41" t="n">
         <v>53</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>6</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1331</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.004504504504504504</v>
+      <c r="G41" t="n">
+        <v>0.004507888805409466</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.005259203606311044</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.04432757325319309</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.03981968444778362</v>
       </c>
     </row>
     <row r="42">
@@ -1277,16 +1777,28 @@
         <v>59</v>
       </c>
       <c r="C42" t="n">
+        <v>61</v>
+      </c>
+      <c r="D42" t="n">
         <v>36</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>23</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>1353</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.01698670605612999</v>
+      <c r="G42" t="n">
+        <v>0.01699926090169993</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01847745750184775</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.04360679970436068</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.02660753880266075</v>
       </c>
     </row>
     <row r="43">
@@ -1297,16 +1809,28 @@
         <v>51</v>
       </c>
       <c r="C43" t="n">
+        <v>52</v>
+      </c>
+      <c r="D43" t="n">
         <v>33</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>18</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1412</v>
       </c>
-      <c r="F43" t="n">
-        <v>0.01273885350318471</v>
+      <c r="G43" t="n">
+        <v>0.01274787535410765</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.01345609065155807</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03611898016997167</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.02337110481586402</v>
       </c>
     </row>
     <row r="44">
@@ -1317,16 +1841,28 @@
         <v>55</v>
       </c>
       <c r="C44" t="n">
+        <v>59</v>
+      </c>
+      <c r="D44" t="n">
         <v>49</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1584</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.003785488958990536</v>
+      <c r="G44" t="n">
+        <v>0.003787878787878788</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.006313131313131313</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03472222222222222</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.03093434343434344</v>
       </c>
     </row>
     <row r="45">
@@ -1337,16 +1873,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="n">
+        <v>53</v>
+      </c>
+      <c r="D45" t="n">
         <v>58</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-6</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1520</v>
       </c>
-      <c r="F45" t="n">
-        <v>-0.003944773175542407</v>
+      <c r="G45" t="n">
+        <v>-0.003947368421052632</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.003289473684210526</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03421052631578948</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.03815789473684211</v>
       </c>
     </row>
     <row r="46">
@@ -1357,16 +1905,28 @@
         <v>56</v>
       </c>
       <c r="C46" t="n">
+        <v>59</v>
+      </c>
+      <c r="D46" t="n">
         <v>46</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>1462</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.00683526999316473</v>
+      <c r="G46" t="n">
+        <v>0.006839945280437756</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.008891928864569083</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.03830369357045144</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.03146374829001368</v>
       </c>
     </row>
     <row r="47">
@@ -1377,16 +1937,28 @@
         <v>52</v>
       </c>
       <c r="C47" t="n">
+        <v>54</v>
+      </c>
+      <c r="D47" t="n">
         <v>51</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>1616</v>
       </c>
-      <c r="F47" t="n">
-        <v>0.0006184291898577613</v>
+      <c r="G47" t="n">
+        <v>0.0006188118811881188</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001856435643564356</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03217821782178218</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.03155940594059406</v>
       </c>
     </row>
     <row r="48">
@@ -1397,16 +1969,28 @@
         <v>27</v>
       </c>
       <c r="C48" t="n">
+        <v>28</v>
+      </c>
+      <c r="D48" t="n">
         <v>32</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>-5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>1204</v>
       </c>
-      <c r="F48" t="n">
-        <v>-0.004149377593360996</v>
+      <c r="G48" t="n">
+        <v>-0.004152823920265781</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.003322259136212625</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.02242524916943522</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.026578073089701</v>
       </c>
     </row>
     <row r="49">
@@ -1417,16 +2001,28 @@
         <v>50</v>
       </c>
       <c r="C49" t="n">
+        <v>53</v>
+      </c>
+      <c r="D49" t="n">
         <v>49</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>1557</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.0006418485237483953</v>
+      <c r="G49" t="n">
+        <v>0.0006422607578676942</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.002569043031470777</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.03211303789338472</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.03147077713551702</v>
       </c>
     </row>
     <row r="50">
@@ -1437,16 +2033,28 @@
         <v>51</v>
       </c>
       <c r="C50" t="n">
+        <v>52</v>
+      </c>
+      <c r="D50" t="n">
         <v>44</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>7</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1372</v>
       </c>
-      <c r="F50" t="n">
-        <v>0.005098324836125273</v>
+      <c r="G50" t="n">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.005830903790087463</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.03717201166180758</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.03206997084548105</v>
       </c>
     </row>
     <row r="51">
@@ -1457,16 +2065,28 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
+        <v>52</v>
+      </c>
+      <c r="D51" t="n">
         <v>45</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>4</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>1156</v>
       </c>
-      <c r="F51" t="n">
-        <v>0.003457216940363008</v>
+      <c r="G51" t="n">
+        <v>0.003460207612456748</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.006055363321799308</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.04238754325259515</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.03892733564013841</v>
       </c>
     </row>
     <row r="52">
@@ -1477,16 +2097,28 @@
         <v>48</v>
       </c>
       <c r="C52" t="n">
+        <v>51</v>
+      </c>
+      <c r="D52" t="n">
         <v>45</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>3</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>1501</v>
       </c>
-      <c r="F52" t="n">
-        <v>0.001997336884154461</v>
+      <c r="G52" t="n">
+        <v>0.001998667554963358</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.003997335109926716</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.03197868087941372</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.02998001332445037</v>
       </c>
     </row>
     <row r="53">
@@ -1497,16 +2129,28 @@
         <v>54</v>
       </c>
       <c r="C53" t="n">
+        <v>55</v>
+      </c>
+      <c r="D53" t="n">
         <v>33</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>21</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>1297</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.01617873651771957</v>
+      <c r="G53" t="n">
+        <v>0.01619121048573631</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01696222050886662</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.04163454124903624</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.02544333076329992</v>
       </c>
     </row>
     <row r="54">
@@ -1517,16 +2161,28 @@
         <v>65</v>
       </c>
       <c r="C54" t="n">
+        <v>66</v>
+      </c>
+      <c r="D54" t="n">
         <v>45</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>20</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>1301</v>
       </c>
-      <c r="F54" t="n">
-        <v>0.01536098310291859</v>
+      <c r="G54" t="n">
+        <v>0.0153727901614143</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01614142966948501</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.04996156802459646</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.03458877786318217</v>
       </c>
     </row>
     <row r="55">
@@ -1537,16 +2193,28 @@
         <v>71</v>
       </c>
       <c r="C55" t="n">
+        <v>77</v>
+      </c>
+      <c r="D55" t="n">
         <v>42</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>29</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>1632</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.01775872627066748</v>
+      <c r="G55" t="n">
+        <v>0.01776960784313725</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02144607843137255</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.04350490196078431</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02573529411764706</v>
       </c>
     </row>
     <row r="56">
@@ -1557,16 +2225,28 @@
         <v>111</v>
       </c>
       <c r="C56" t="n">
+        <v>113</v>
+      </c>
+      <c r="D56" t="n">
         <v>75</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>36</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>1875</v>
       </c>
-      <c r="F56" t="n">
-        <v>0.01918976545842218</v>
+      <c r="G56" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02026666666666667</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
@@ -1577,16 +2257,28 @@
         <v>67</v>
       </c>
       <c r="C57" t="n">
+        <v>73</v>
+      </c>
+      <c r="D57" t="n">
         <v>42</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>25</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>1619</v>
       </c>
-      <c r="F57" t="n">
-        <v>0.0154320987654321</v>
+      <c r="G57" t="n">
+        <v>0.01544163063619518</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01914762198888202</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.04138357010500309</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.02594193946880791</v>
       </c>
     </row>
     <row r="58">
@@ -1597,16 +2289,28 @@
         <v>60</v>
       </c>
       <c r="C58" t="n">
+        <v>63</v>
+      </c>
+      <c r="D58" t="n">
         <v>54</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>6</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>1687</v>
       </c>
-      <c r="F58" t="n">
-        <v>0.003554502369668246</v>
+      <c r="G58" t="n">
+        <v>0.003556609365737996</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.005334914048606995</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.03556609365737996</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.03200948429164197</v>
       </c>
     </row>
     <row r="59">
@@ -1617,16 +2321,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="n">
+        <v>70</v>
+      </c>
+      <c r="D59" t="n">
         <v>40</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>26</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>1422</v>
       </c>
-      <c r="F59" t="n">
-        <v>0.01827125790583275</v>
+      <c r="G59" t="n">
+        <v>0.01828410689170183</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.02109704641350211</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.04641350210970464</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02812939521800281</v>
       </c>
     </row>
     <row r="60">
@@ -1637,16 +2353,28 @@
         <v>53</v>
       </c>
       <c r="C60" t="n">
+        <v>56</v>
+      </c>
+      <c r="D60" t="n">
         <v>53</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>1531</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.001959503592423253</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.03461789679947747</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.03461789679947747</v>
       </c>
     </row>
     <row r="61">
@@ -1657,16 +2385,28 @@
         <v>77</v>
       </c>
       <c r="C61" t="n">
+        <v>80</v>
+      </c>
+      <c r="D61" t="n">
         <v>53</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>24</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>1415</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.01694915254237288</v>
+      <c r="G61" t="n">
+        <v>0.01696113074204947</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.01908127208480566</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.05441696113074205</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.03745583038869258</v>
       </c>
     </row>
     <row r="62">
@@ -1677,16 +2417,28 @@
         <v>66</v>
       </c>
       <c r="C62" t="n">
+        <v>71</v>
+      </c>
+      <c r="D62" t="n">
         <v>45</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>21</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>1308</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.0160427807486631</v>
+      <c r="G62" t="n">
+        <v>0.01605504587155963</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.01987767584097859</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.05045871559633028</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.03440366972477064</v>
       </c>
     </row>
     <row r="63">
@@ -1697,16 +2449,28 @@
         <v>69</v>
       </c>
       <c r="C63" t="n">
+        <v>70</v>
+      </c>
+      <c r="D63" t="n">
         <v>38</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>31</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>1403</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.02207977207977208</v>
+      <c r="G63" t="n">
+        <v>0.02209550962223806</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.02280826799714897</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0270848182466144</v>
       </c>
     </row>
     <row r="64">
@@ -1717,16 +2481,28 @@
         <v>64</v>
       </c>
       <c r="C64" t="n">
+        <v>68</v>
+      </c>
+      <c r="D64" t="n">
         <v>19</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>45</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>1286</v>
       </c>
-      <c r="F64" t="n">
-        <v>0.03496503496503497</v>
+      <c r="G64" t="n">
+        <v>0.03499222395023328</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.03810264385692069</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.04976671850699844</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01477449455676516</v>
       </c>
     </row>
     <row r="65">
@@ -1737,16 +2513,28 @@
         <v>47</v>
       </c>
       <c r="C65" t="n">
+        <v>49</v>
+      </c>
+      <c r="D65" t="n">
         <v>33</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>14</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>1178</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.01187446988973707</v>
+      <c r="G65" t="n">
+        <v>0.01188455008488964</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.01358234295415959</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0398981324278438</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.02801358234295416</v>
       </c>
     </row>
     <row r="66">
@@ -1757,16 +2545,28 @@
         <v>80</v>
       </c>
       <c r="C66" t="n">
+        <v>83</v>
+      </c>
+      <c r="D66" t="n">
         <v>42</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>38</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>1612</v>
       </c>
-      <c r="F66" t="n">
-        <v>0.02355858648481091</v>
+      <c r="G66" t="n">
+        <v>0.02357320099255583</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.02543424317617866</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.04962779156327544</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0260545905707196</v>
       </c>
     </row>
     <row r="67">
@@ -1777,16 +2577,28 @@
         <v>78</v>
       </c>
       <c r="C67" t="n">
+        <v>81</v>
+      </c>
+      <c r="D67" t="n">
         <v>44</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>34</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>1554</v>
       </c>
-      <c r="F67" t="n">
-        <v>0.02186495176848875</v>
+      <c r="G67" t="n">
+        <v>0.02187902187902188</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.05019305019305019</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.02831402831402832</v>
       </c>
     </row>
     <row r="68">
@@ -1797,16 +2609,28 @@
         <v>53</v>
       </c>
       <c r="C68" t="n">
+        <v>54</v>
+      </c>
+      <c r="D68" t="n">
         <v>34</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>19</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>1260</v>
       </c>
-      <c r="F68" t="n">
-        <v>0.01506740681998414</v>
+      <c r="G68" t="n">
+        <v>0.01507936507936508</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.04206349206349207</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.02698412698412699</v>
       </c>
     </row>
     <row r="69">
@@ -1817,16 +2641,28 @@
         <v>36</v>
       </c>
       <c r="C69" t="n">
+        <v>37</v>
+      </c>
+      <c r="D69" t="n">
         <v>36</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>1174</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0008517887563884157</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.03066439522998296</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.03066439522998296</v>
       </c>
     </row>
     <row r="70">
@@ -1837,16 +2673,28 @@
         <v>35</v>
       </c>
       <c r="C70" t="n">
+        <v>36</v>
+      </c>
+      <c r="D70" t="n">
         <v>22</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>13</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>885</v>
       </c>
-      <c r="F70" t="n">
-        <v>0.01467268623024831</v>
+      <c r="G70" t="n">
+        <v>0.01468926553672316</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01581920903954802</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.03954802259887006</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.02485875706214689</v>
       </c>
     </row>
     <row r="71">
@@ -1857,16 +2705,28 @@
         <v>46</v>
       </c>
       <c r="C71" t="n">
+        <v>47</v>
+      </c>
+      <c r="D71" t="n">
         <v>48</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>-2</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>1436</v>
       </c>
-      <c r="F71" t="n">
-        <v>-0.00139178844815588</v>
+      <c r="G71" t="n">
+        <v>-0.001392757660167131</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.0006963788300835655</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.03203342618384401</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.03342618384401114</v>
       </c>
     </row>
     <row r="72">
@@ -1880,13 +2740,25 @@
         <v>42</v>
       </c>
       <c r="D72" t="n">
+        <v>42</v>
+      </c>
+      <c r="E72" t="n">
         <v>-2</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>1330</v>
       </c>
-      <c r="F72" t="n">
-        <v>-0.001502629601803156</v>
+      <c r="G72" t="n">
+        <v>-0.001503759398496241</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.03007518796992481</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.03157894736842105</v>
       </c>
     </row>
     <row r="73">
@@ -1897,16 +2769,28 @@
         <v>39</v>
       </c>
       <c r="C73" t="n">
+        <v>42</v>
+      </c>
+      <c r="D73" t="n">
         <v>36</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>3</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>1125</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.002664298401420959</v>
+      <c r="G73" t="n">
+        <v>0.002666666666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.005333333333333333</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.03466666666666667</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="74">
@@ -1917,16 +2801,28 @@
         <v>39</v>
       </c>
       <c r="C74" t="n">
+        <v>42</v>
+      </c>
+      <c r="D74" t="n">
         <v>41</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>-2</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>1420</v>
       </c>
-      <c r="F74" t="n">
-        <v>-0.001407459535538353</v>
+      <c r="G74" t="n">
+        <v>-0.001408450704225352</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0007042253521126761</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.02746478873239437</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.02887323943661972</v>
       </c>
     </row>
     <row r="75">
@@ -1937,16 +2833,28 @@
         <v>45</v>
       </c>
       <c r="C75" t="n">
+        <v>46</v>
+      </c>
+      <c r="D75" t="n">
         <v>30</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>15</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>1225</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.01223491027732463</v>
+      <c r="G75" t="n">
+        <v>0.01224489795918367</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.01306122448979592</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.03673469387755102</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.02448979591836735</v>
       </c>
     </row>
     <row r="76">
@@ -1957,16 +2865,28 @@
         <v>49</v>
       </c>
       <c r="C76" t="n">
+        <v>53</v>
+      </c>
+      <c r="D76" t="n">
         <v>27</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>22</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>1168</v>
       </c>
-      <c r="F76" t="n">
-        <v>0.01881950384944397</v>
+      <c r="G76" t="n">
+        <v>0.01883561643835616</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.02226027397260274</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.04195205479452055</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.02311643835616438</v>
       </c>
     </row>
     <row r="77">
@@ -1977,16 +2897,28 @@
         <v>43</v>
       </c>
       <c r="C77" t="n">
+        <v>46</v>
+      </c>
+      <c r="D77" t="n">
         <v>27</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>16</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>1237</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.01292407108239095</v>
+      <c r="G77" t="n">
+        <v>0.01293451899757478</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.01535974130962005</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.03476151980598222</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02182700080840744</v>
       </c>
     </row>
     <row r="78">
@@ -1997,16 +2929,28 @@
         <v>48</v>
       </c>
       <c r="C78" t="n">
+        <v>52</v>
+      </c>
+      <c r="D78" t="n">
         <v>45</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" t="n">
-        <v>0.002172338884866039</v>
+      <c r="G78" t="n">
+        <v>0.002173913043478261</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.005072463768115942</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.03260869565217391</v>
       </c>
     </row>
     <row r="79">
@@ -2017,16 +2961,28 @@
         <v>25</v>
       </c>
       <c r="C79" t="n">
+        <v>26</v>
+      </c>
+      <c r="D79" t="n">
         <v>34</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>-9</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>1046</v>
       </c>
-      <c r="F79" t="n">
-        <v>-0.008595988538681949</v>
+      <c r="G79" t="n">
+        <v>-0.008604206500956023</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.007648183556405353</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.02390057361376673</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03250478011472276</v>
       </c>
     </row>
     <row r="80">
@@ -2037,16 +2993,28 @@
         <v>46</v>
       </c>
       <c r="C80" t="n">
+        <v>48</v>
+      </c>
+      <c r="D80" t="n">
         <v>34</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>12</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>1300</v>
       </c>
-      <c r="F80" t="n">
-        <v>0.009223674096848577</v>
+      <c r="G80" t="n">
+        <v>0.009230769230769232</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.01076923076923077</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.03538461538461538</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02615384615384615</v>
       </c>
     </row>
     <row r="81">
@@ -2057,16 +3025,28 @@
         <v>29</v>
       </c>
       <c r="C81" t="n">
+        <v>30</v>
+      </c>
+      <c r="D81" t="n">
         <v>34</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>-5</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>1186</v>
       </c>
-      <c r="F81" t="n">
-        <v>-0.004212299915754001</v>
+      <c r="G81" t="n">
+        <v>-0.004215851602023609</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.003372681281618887</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.02445193929173693</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02866779089376054</v>
       </c>
     </row>
     <row r="82">
@@ -2077,16 +3057,28 @@
         <v>31</v>
       </c>
       <c r="C82" t="n">
+        <v>32</v>
+      </c>
+      <c r="D82" t="n">
         <v>41</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>-10</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1374</v>
       </c>
-      <c r="F82" t="n">
-        <v>-0.007272727272727273</v>
+      <c r="G82" t="n">
+        <v>-0.00727802037845706</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.006550218340611353</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.02256186317321689</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02983988355167394</v>
       </c>
     </row>
     <row r="83">
@@ -2097,16 +3089,28 @@
         <v>62</v>
       </c>
       <c r="C83" t="n">
+        <v>65</v>
+      </c>
+      <c r="D83" t="n">
         <v>44</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>18</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>1388</v>
       </c>
-      <c r="F83" t="n">
-        <v>0.01295896328293736</v>
+      <c r="G83" t="n">
+        <v>0.01296829971181556</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.01512968299711816</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0446685878962536</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03170028818443804</v>
       </c>
     </row>
     <row r="84">
@@ -2117,16 +3121,28 @@
         <v>40</v>
       </c>
       <c r="C84" t="n">
+        <v>44</v>
+      </c>
+      <c r="D84" t="n">
         <v>34</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>6</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>1197</v>
       </c>
-      <c r="F84" t="n">
-        <v>0.005008347245409015</v>
+      <c r="G84" t="n">
+        <v>0.005012531328320802</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.00835421888053467</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.03341687552213868</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02840434419381788</v>
       </c>
     </row>
     <row r="85">
@@ -2137,16 +3153,28 @@
         <v>39</v>
       </c>
       <c r="C85" t="n">
+        <v>40</v>
+      </c>
+      <c r="D85" t="n">
         <v>31</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>8</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>1292</v>
       </c>
-      <c r="F85" t="n">
-        <v>0.006187161639597835</v>
+      <c r="G85" t="n">
+        <v>0.006191950464396285</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.00696594427244582</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.03018575851393189</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0239938080495356</v>
       </c>
     </row>
     <row r="86">
@@ -2157,16 +3185,28 @@
         <v>44</v>
       </c>
       <c r="C86" t="n">
+        <v>46</v>
+      </c>
+      <c r="D86" t="n">
         <v>34</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>10</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>1157</v>
       </c>
-      <c r="F86" t="n">
-        <v>0.008635578583765112</v>
+      <c r="G86" t="n">
+        <v>0.00864304235090752</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.01037165082108902</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.03802938634399308</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02938634399308557</v>
       </c>
     </row>
     <row r="87">
@@ -2177,16 +3217,28 @@
         <v>54</v>
       </c>
       <c r="C87" t="n">
+        <v>58</v>
+      </c>
+      <c r="D87" t="n">
         <v>32</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>22</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>1322</v>
       </c>
-      <c r="F87" t="n">
-        <v>0.01662887377173091</v>
+      <c r="G87" t="n">
+        <v>0.01664145234493192</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.01966717095310136</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.04084720121028744</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02420574886535552</v>
       </c>
     </row>
     <row r="88">
@@ -2197,16 +3249,28 @@
         <v>58</v>
       </c>
       <c r="C88" t="n">
+        <v>62</v>
+      </c>
+      <c r="D88" t="n">
         <v>42</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>16</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>1425</v>
       </c>
-      <c r="F88" t="n">
-        <v>0.01122019635343618</v>
+      <c r="G88" t="n">
+        <v>0.0112280701754386</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.01403508771929825</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.04070175438596491</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02947368421052632</v>
       </c>
     </row>
     <row r="89">
@@ -2217,16 +3281,28 @@
         <v>52</v>
       </c>
       <c r="C89" t="n">
+        <v>57</v>
+      </c>
+      <c r="D89" t="n">
         <v>41</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>11</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>1265</v>
       </c>
-      <c r="F89" t="n">
-        <v>0.008688783570300158</v>
+      <c r="G89" t="n">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.01264822134387352</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.04110671936758893</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.03241106719367589</v>
       </c>
     </row>
     <row r="90">
@@ -2237,16 +3313,28 @@
         <v>42</v>
       </c>
       <c r="C90" t="n">
+        <v>46</v>
+      </c>
+      <c r="D90" t="n">
         <v>25</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>17</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1162</v>
       </c>
-      <c r="F90" t="n">
-        <v>0.01461736887360275</v>
+      <c r="G90" t="n">
+        <v>0.01462994836488812</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.01807228915662651</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.03614457831325301</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02151462994836489</v>
       </c>
     </row>
     <row r="91">
@@ -2257,16 +3345,28 @@
         <v>53</v>
       </c>
       <c r="C91" t="n">
+        <v>57</v>
+      </c>
+      <c r="D91" t="n">
         <v>32</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>21</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>1460</v>
       </c>
-      <c r="F91" t="n">
-        <v>0.01437371663244353</v>
+      <c r="G91" t="n">
+        <v>0.01438356164383562</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.01712328767123288</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0363013698630137</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02191780821917808</v>
       </c>
     </row>
     <row r="92">
@@ -2277,16 +3377,28 @@
         <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D92" t="n">
         <v>19</v>
       </c>
       <c r="E92" t="n">
+        <v>19</v>
+      </c>
+      <c r="F92" t="n">
         <v>1189</v>
       </c>
-      <c r="F92" t="n">
-        <v>0.01596638655462185</v>
+      <c r="G92" t="n">
+        <v>0.0159798149705635</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.01850294365012616</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.031959629941127</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0159798149705635</v>
       </c>
     </row>
     <row r="93">
@@ -2297,16 +3409,28 @@
         <v>50</v>
       </c>
       <c r="C93" t="n">
+        <v>54</v>
+      </c>
+      <c r="D93" t="n">
         <v>33</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>17</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1729</v>
       </c>
-      <c r="F93" t="n">
-        <v>0.009826589595375723</v>
+      <c r="G93" t="n">
+        <v>0.009832272990167727</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.01214574898785425</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.02891844997108155</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01908617698091382</v>
       </c>
     </row>
     <row r="94">
@@ -2317,16 +3441,28 @@
         <v>32</v>
       </c>
       <c r="C94" t="n">
+        <v>33</v>
+      </c>
+      <c r="D94" t="n">
         <v>32</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1569</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0006373486297004461</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.02039515615041428</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02039515615041428</v>
       </c>
     </row>
     <row r="95">
@@ -2337,16 +3473,28 @@
         <v>48</v>
       </c>
       <c r="C95" t="n">
+        <v>51</v>
+      </c>
+      <c r="D95" t="n">
         <v>27</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>21</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>1503</v>
       </c>
-      <c r="F95" t="n">
-        <v>0.01396276595744681</v>
+      <c r="G95" t="n">
+        <v>0.01397205588822355</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.01596806387225549</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.03193612774451098</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01796407185628742</v>
       </c>
     </row>
     <row r="96">
@@ -2357,16 +3505,28 @@
         <v>57</v>
       </c>
       <c r="C96" t="n">
+        <v>62</v>
+      </c>
+      <c r="D96" t="n">
         <v>34</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>23</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1625</v>
       </c>
-      <c r="F96" t="n">
-        <v>0.01414514145141451</v>
+      <c r="G96" t="n">
+        <v>0.01415384615384615</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.01723076923076923</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.03507692307692307</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02092307692307692</v>
       </c>
     </row>
     <row r="97">
@@ -2377,16 +3537,28 @@
         <v>43</v>
       </c>
       <c r="C97" t="n">
+        <v>48</v>
+      </c>
+      <c r="D97" t="n">
         <v>31</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>12</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1370</v>
       </c>
-      <c r="F97" t="n">
-        <v>0.008752735229759299</v>
+      <c r="G97" t="n">
+        <v>0.008759124087591242</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01240875912408759</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.03138686131386861</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02262773722627737</v>
       </c>
     </row>
     <row r="98">
@@ -2397,16 +3569,28 @@
         <v>49</v>
       </c>
       <c r="C98" t="n">
+        <v>59</v>
+      </c>
+      <c r="D98" t="n">
         <v>50</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>-1</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>1621</v>
       </c>
-      <c r="F98" t="n">
-        <v>-0.0006165228113440197</v>
+      <c r="G98" t="n">
+        <v>-0.0006169031462060457</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.005552128315854411</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.03022825416409624</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03084515731030228</v>
       </c>
     </row>
     <row r="99">
@@ -2417,16 +3601,28 @@
         <v>41</v>
       </c>
       <c r="C99" t="n">
+        <v>50</v>
+      </c>
+      <c r="D99" t="n">
         <v>42</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>-1</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>1633</v>
       </c>
-      <c r="F99" t="n">
-        <v>-0.0006119951040391676</v>
+      <c r="G99" t="n">
+        <v>-0.000612369871402327</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.004898958971218616</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.02510716472749541</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02571953459889774</v>
       </c>
     </row>
     <row r="100">
@@ -2437,16 +3633,28 @@
         <v>52</v>
       </c>
       <c r="C100" t="n">
+        <v>54</v>
+      </c>
+      <c r="D100" t="n">
         <v>30</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>22</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>1514</v>
       </c>
-      <c r="F100" t="n">
-        <v>0.01452145214521452</v>
+      <c r="G100" t="n">
+        <v>0.01453104359313078</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.01585204755614267</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.03434610303830912</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.01981505944517833</v>
       </c>
     </row>
     <row r="101">
@@ -2457,16 +3665,28 @@
         <v>58</v>
       </c>
       <c r="C101" t="n">
+        <v>63</v>
+      </c>
+      <c r="D101" t="n">
         <v>50</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>8</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1601</v>
       </c>
-      <c r="F101" t="n">
-        <v>0.004993757802746567</v>
+      <c r="G101" t="n">
+        <v>0.004996876951905059</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.008119925046845722</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.03622735790131168</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.03123048094940662</v>
       </c>
     </row>
     <row r="102">
@@ -2477,16 +3697,28 @@
         <v>60</v>
       </c>
       <c r="C102" t="n">
+        <v>64</v>
+      </c>
+      <c r="D102" t="n">
         <v>29</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>31</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1763</v>
       </c>
-      <c r="F102" t="n">
-        <v>0.01757369614512472</v>
+      <c r="G102" t="n">
+        <v>0.01758366420873511</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.01985252410663641</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.03403289846851957</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.01644923425978446</v>
       </c>
     </row>
     <row r="103">
@@ -2497,16 +3729,28 @@
         <v>47</v>
       </c>
       <c r="C103" t="n">
+        <v>51</v>
+      </c>
+      <c r="D103" t="n">
         <v>29</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>18</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>1322</v>
       </c>
-      <c r="F103" t="n">
-        <v>0.01360544217687075</v>
+      <c r="G103" t="n">
+        <v>0.01361573373676248</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.01664145234493192</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.03555219364599092</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02193645990922844</v>
       </c>
     </row>
     <row r="104">
@@ -2517,16 +3761,28 @@
         <v>75</v>
       </c>
       <c r="C104" t="n">
+        <v>81</v>
+      </c>
+      <c r="D104" t="n">
         <v>44</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>31</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>1826</v>
       </c>
-      <c r="F104" t="n">
-        <v>0.01696770662287904</v>
+      <c r="G104" t="n">
+        <v>0.01697699890470975</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.02026286966046002</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.04107338444687842</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="105">
@@ -2537,16 +3793,28 @@
         <v>73</v>
       </c>
       <c r="C105" t="n">
+        <v>78</v>
+      </c>
+      <c r="D105" t="n">
         <v>30</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>43</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>1547</v>
       </c>
-      <c r="F105" t="n">
-        <v>0.02777777777777778</v>
+      <c r="G105" t="n">
+        <v>0.02779573367808662</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.03102779573367809</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.04718810601163542</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0193923723335488</v>
       </c>
     </row>
     <row r="106">
@@ -2557,16 +3825,28 @@
         <v>60</v>
       </c>
       <c r="C106" t="n">
+        <v>65</v>
+      </c>
+      <c r="D106" t="n">
         <v>49</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>11</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>1783</v>
       </c>
-      <c r="F106" t="n">
-        <v>0.00616591928251121</v>
+      <c r="G106" t="n">
+        <v>0.006169377453729669</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.008973639932697701</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.03365114974761638</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02748177229388671</v>
       </c>
     </row>
     <row r="107">
@@ -2577,16 +3857,28 @@
         <v>60</v>
       </c>
       <c r="C107" t="n">
+        <v>67</v>
+      </c>
+      <c r="D107" t="n">
         <v>46</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>14</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1674</v>
       </c>
-      <c r="F107" t="n">
-        <v>0.00835820895522388</v>
+      <c r="G107" t="n">
+        <v>0.008363201911589008</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.01254480286738351</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.03584229390681003</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02747909199522103</v>
       </c>
     </row>
     <row r="108">
@@ -2597,16 +3889,28 @@
         <v>63</v>
       </c>
       <c r="C108" t="n">
+        <v>71</v>
+      </c>
+      <c r="D108" t="n">
         <v>38</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>25</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>1611</v>
       </c>
-      <c r="F108" t="n">
-        <v>0.01550868486352357</v>
+      <c r="G108" t="n">
+        <v>0.01551831160769708</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.02048417132216015</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.03910614525139665</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02358783364369956</v>
       </c>
     </row>
     <row r="109">
@@ -2617,16 +3921,28 @@
         <v>52</v>
       </c>
       <c r="C109" t="n">
+        <v>58</v>
+      </c>
+      <c r="D109" t="n">
         <v>29</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>23</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>1523</v>
       </c>
-      <c r="F109" t="n">
-        <v>0.01509186351706037</v>
+      <c r="G109" t="n">
+        <v>0.01510177281680893</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.01904136572554169</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.03414313854235063</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.01904136572554169</v>
       </c>
     </row>
     <row r="110">
@@ -2637,16 +3953,28 @@
         <v>68</v>
       </c>
       <c r="C110" t="n">
+        <v>76</v>
+      </c>
+      <c r="D110" t="n">
         <v>39</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>29</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>1831</v>
       </c>
-      <c r="F110" t="n">
-        <v>0.0158296943231441</v>
+      <c r="G110" t="n">
+        <v>0.01583833970507919</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.02020753686510104</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.03713817586018569</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0212998361551065</v>
       </c>
     </row>
     <row r="111">
@@ -2657,16 +3985,28 @@
         <v>56</v>
       </c>
       <c r="C111" t="n">
+        <v>63</v>
+      </c>
+      <c r="D111" t="n">
         <v>36</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>20</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1700</v>
       </c>
-      <c r="F111" t="n">
-        <v>0.01175778953556731</v>
+      <c r="G111" t="n">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.01588235294117647</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.03294117647058824</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02117647058823529</v>
       </c>
     </row>
     <row r="112">
@@ -2677,16 +4017,28 @@
         <v>60</v>
       </c>
       <c r="C112" t="n">
+        <v>64</v>
+      </c>
+      <c r="D112" t="n">
         <v>54</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>6</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1858</v>
       </c>
-      <c r="F112" t="n">
-        <v>0.003227541689080151</v>
+      <c r="G112" t="n">
+        <v>0.003229278794402584</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.005382131324004306</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.03229278794402583</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02906350914962325</v>
       </c>
     </row>
     <row r="113">
@@ -2697,16 +4049,28 @@
         <v>45</v>
       </c>
       <c r="C113" t="n">
+        <v>52</v>
+      </c>
+      <c r="D113" t="n">
         <v>41</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>4</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1760</v>
       </c>
-      <c r="F113" t="n">
-        <v>0.002271436683702442</v>
+      <c r="G113" t="n">
+        <v>0.002272727272727273</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.02556818181818182</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02329545454545455</v>
       </c>
     </row>
     <row r="114">
@@ -2717,16 +4081,28 @@
         <v>37</v>
       </c>
       <c r="C114" t="n">
+        <v>42</v>
+      </c>
+      <c r="D114" t="n">
         <v>39</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>-2</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1466</v>
       </c>
-      <c r="F114" t="n">
-        <v>-0.00136332651670075</v>
+      <c r="G114" t="n">
+        <v>-0.001364256480218281</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.002046384720327421</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0252387448840382</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02660300136425648</v>
       </c>
     </row>
     <row r="115">
@@ -2737,16 +4113,28 @@
         <v>50</v>
       </c>
       <c r="C115" t="n">
+        <v>55</v>
+      </c>
+      <c r="D115" t="n">
         <v>53</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>-3</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>1692</v>
       </c>
-      <c r="F115" t="n">
-        <v>-0.001772002362669817</v>
+      <c r="G115" t="n">
+        <v>-0.001773049645390071</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.001182033096926714</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.02955082742316785</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03132387706855792</v>
       </c>
     </row>
     <row r="116">
@@ -2757,16 +4145,28 @@
         <v>37</v>
       </c>
       <c r="C116" t="n">
+        <v>41</v>
+      </c>
+      <c r="D116" t="n">
         <v>49</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>-12</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1640</v>
       </c>
-      <c r="F116" t="n">
-        <v>-0.007312614259597806</v>
+      <c r="G116" t="n">
+        <v>-0.007317073170731708</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.004878048780487805</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.0225609756097561</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0298780487804878</v>
       </c>
     </row>
     <row r="117">
@@ -2780,13 +4180,25 @@
         <v>71</v>
       </c>
       <c r="D117" t="n">
+        <v>71</v>
+      </c>
+      <c r="E117" t="n">
         <v>-2</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>2030</v>
       </c>
-      <c r="F117" t="n">
-        <v>-0.0009847365829640572</v>
+      <c r="G117" t="n">
+        <v>-0.0009852216748768472</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.03399014778325123</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03497536945812808</v>
       </c>
     </row>
     <row r="118">
@@ -2797,16 +4209,28 @@
         <v>34</v>
       </c>
       <c r="C118" t="n">
+        <v>40</v>
+      </c>
+      <c r="D118" t="n">
         <v>45</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>-11</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1898</v>
       </c>
-      <c r="F118" t="n">
-        <v>-0.005792522380200105</v>
+      <c r="G118" t="n">
+        <v>-0.005795574288724974</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.002634351949420442</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.01791359325605901</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02370916754478398</v>
       </c>
     </row>
     <row r="119">
@@ -2817,16 +4241,28 @@
         <v>63</v>
       </c>
       <c r="C119" t="n">
+        <v>65</v>
+      </c>
+      <c r="D119" t="n">
         <v>52</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>11</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>1755</v>
       </c>
-      <c r="F119" t="n">
-        <v>0.006264236902050114</v>
+      <c r="G119" t="n">
+        <v>0.006267806267806268</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02962962962962963</v>
       </c>
     </row>
     <row r="120">
@@ -2837,16 +4273,28 @@
         <v>45</v>
       </c>
       <c r="C120" t="n">
+        <v>48</v>
+      </c>
+      <c r="D120" t="n">
         <v>59</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>-14</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>1700</v>
       </c>
-      <c r="F120" t="n">
-        <v>-0.00823045267489712</v>
+      <c r="G120" t="n">
+        <v>-0.008235294117647059</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.006470588235294118</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.02647058823529412</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03470588235294118</v>
       </c>
     </row>
     <row r="121">
@@ -2857,16 +4305,28 @@
         <v>58</v>
       </c>
       <c r="C121" t="n">
+        <v>62</v>
+      </c>
+      <c r="D121" t="n">
         <v>59</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>-1</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>1895</v>
       </c>
-      <c r="F121" t="n">
-        <v>-0.0005274261603375527</v>
+      <c r="G121" t="n">
+        <v>-0.0005277044854881266</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.00158311345646438</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.03060686015831135</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03113456464379947</v>
       </c>
     </row>
     <row r="122">
@@ -2877,16 +4337,28 @@
         <v>40</v>
       </c>
       <c r="C122" t="n">
+        <v>44</v>
+      </c>
+      <c r="D122" t="n">
         <v>64</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>-24</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>1650</v>
       </c>
-      <c r="F122" t="n">
-        <v>-0.0145366444579043</v>
+      <c r="G122" t="n">
+        <v>-0.01454545454545455</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.01212121212121212</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.02424242424242424</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03878787878787879</v>
       </c>
     </row>
     <row r="123">
@@ -2897,16 +4369,28 @@
         <v>59</v>
       </c>
       <c r="C123" t="n">
+        <v>64</v>
+      </c>
+      <c r="D123" t="n">
         <v>54</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>5</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>1934</v>
       </c>
-      <c r="F123" t="n">
-        <v>0.002583979328165375</v>
+      <c r="G123" t="n">
+        <v>0.002585315408479835</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.005170630816959669</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.03050672182006205</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02792140641158221</v>
       </c>
     </row>
     <row r="124">
@@ -2917,16 +4401,28 @@
         <v>60</v>
       </c>
       <c r="C124" t="n">
+        <v>69</v>
+      </c>
+      <c r="D124" t="n">
         <v>64</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>-4</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>2002</v>
       </c>
-      <c r="F124" t="n">
-        <v>-0.00199700449326011</v>
+      <c r="G124" t="n">
+        <v>-0.001998001998001998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.002497502497502498</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.02997002997002997</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03196803196803197</v>
       </c>
     </row>
     <row r="125">
@@ -2937,16 +4433,28 @@
         <v>45</v>
       </c>
       <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="n">
         <v>58</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>-13</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>1639</v>
       </c>
-      <c r="F125" t="n">
-        <v>-0.007926829268292683</v>
+      <c r="G125" t="n">
+        <v>-0.007931665649786455</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.004881025015253203</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.02745576571079927</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03538743136058572</v>
       </c>
     </row>
     <row r="126">
@@ -2957,16 +4465,28 @@
         <v>63</v>
       </c>
       <c r="C126" t="n">
+        <v>69</v>
+      </c>
+      <c r="D126" t="n">
         <v>82</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>-19</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>2034</v>
       </c>
-      <c r="F126" t="n">
-        <v>-0.009336609336609337</v>
+      <c r="G126" t="n">
+        <v>-0.009341199606686333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.006391347099311701</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.03097345132743363</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04031465093411996</v>
       </c>
     </row>
     <row r="127">
@@ -2977,16 +4497,28 @@
         <v>40</v>
       </c>
       <c r="C127" t="n">
+        <v>45</v>
+      </c>
+      <c r="D127" t="n">
         <v>48</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>-8</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>1628</v>
       </c>
-      <c r="F127" t="n">
-        <v>-0.004910988336402701</v>
+      <c r="G127" t="n">
+        <v>-0.004914004914004914</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.001842751842751843</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.02457002457002457</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02948402948402949</v>
       </c>
     </row>
     <row r="128">
@@ -2997,16 +4529,28 @@
         <v>73</v>
       </c>
       <c r="C128" t="n">
+        <v>77</v>
+      </c>
+      <c r="D128" t="n">
         <v>79</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>-6</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>2134</v>
       </c>
-      <c r="F128" t="n">
-        <v>-0.002810304449648712</v>
+      <c r="G128" t="n">
+        <v>-0.002811621368322399</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-0.0009372071227741331</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.03420805998125586</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03701968134957825</v>
       </c>
     </row>
     <row r="129">
@@ -3017,16 +4561,28 @@
         <v>53</v>
       </c>
       <c r="C129" t="n">
+        <v>60</v>
+      </c>
+      <c r="D129" t="n">
         <v>65</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>-12</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>1994</v>
       </c>
-      <c r="F129" t="n">
-        <v>-0.006015037593984963</v>
+      <c r="G129" t="n">
+        <v>-0.006018054162487462</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.002507522567703109</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.02657973921765296</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03259779338014042</v>
       </c>
     </row>
     <row r="130">
@@ -3037,16 +4593,28 @@
         <v>80</v>
       </c>
       <c r="C130" t="n">
+        <v>88</v>
+      </c>
+      <c r="D130" t="n">
         <v>68</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>12</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>2143</v>
       </c>
-      <c r="F130" t="n">
-        <v>0.005597014925373134</v>
+      <c r="G130" t="n">
+        <v>0.005599626691553897</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.009332711152589827</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.03733084461035931</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03173121791880541</v>
       </c>
     </row>
     <row r="131">
@@ -3057,16 +4625,28 @@
         <v>73</v>
       </c>
       <c r="C131" t="n">
+        <v>78</v>
+      </c>
+      <c r="D131" t="n">
         <v>83</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>-10</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>2365</v>
       </c>
-      <c r="F131" t="n">
-        <v>-0.00422654268808115</v>
+      <c r="G131" t="n">
+        <v>-0.004228329809725159</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.002114164904862579</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.03086680761099366</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03509513742071882</v>
       </c>
     </row>
     <row r="132">
@@ -3077,16 +4657,28 @@
         <v>59</v>
       </c>
       <c r="C132" t="n">
+        <v>69</v>
+      </c>
+      <c r="D132" t="n">
         <v>62</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>-3</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>2138</v>
       </c>
-      <c r="F132" t="n">
-        <v>-0.001402524544179523</v>
+      <c r="G132" t="n">
+        <v>-0.001403180542563143</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.003274087932647334</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.02759588400374181</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02899906454630496</v>
       </c>
     </row>
     <row r="133">
@@ -3097,16 +4689,28 @@
         <v>65</v>
       </c>
       <c r="C133" t="n">
+        <v>73</v>
+      </c>
+      <c r="D133" t="n">
         <v>64</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>1</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>1926</v>
       </c>
-      <c r="F133" t="n">
-        <v>0.0005189413596263622</v>
+      <c r="G133" t="n">
+        <v>0.0005192107995846313</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.004672897196261682</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.03374870197300104</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03322949117341641</v>
       </c>
     </row>
     <row r="134">
@@ -3117,16 +4721,28 @@
         <v>87</v>
       </c>
       <c r="C134" t="n">
+        <v>94</v>
+      </c>
+      <c r="D134" t="n">
         <v>89</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>-2</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>2545</v>
       </c>
-      <c r="F134" t="n">
-        <v>-0.0007855459544383347</v>
+      <c r="G134" t="n">
+        <v>-0.0007858546168958742</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.001964636542239686</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.03418467583497053</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03497053045186641</v>
       </c>
     </row>
     <row r="135">
@@ -3137,16 +4753,28 @@
         <v>93</v>
       </c>
       <c r="C135" t="n">
+        <v>103</v>
+      </c>
+      <c r="D135" t="n">
         <v>80</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>13</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>2306</v>
       </c>
-      <c r="F135" t="n">
-        <v>0.005635023840485479</v>
+      <c r="G135" t="n">
+        <v>0.005637467476149176</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.00997398091934085</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.04032957502168256</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03469210754553339</v>
       </c>
     </row>
     <row r="136">
@@ -3157,16 +4785,28 @@
         <v>75</v>
       </c>
       <c r="C136" t="n">
+        <v>83</v>
+      </c>
+      <c r="D136" t="n">
         <v>50</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>25</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>1989</v>
       </c>
-      <c r="F136" t="n">
-        <v>0.01256281407035176</v>
+      <c r="G136" t="n">
+        <v>0.01256913021618904</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.01659125188536953</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.03770739064856712</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02513826043237808</v>
       </c>
     </row>
     <row r="137">
@@ -3177,16 +4817,28 @@
         <v>124</v>
       </c>
       <c r="C137" t="n">
+        <v>134</v>
+      </c>
+      <c r="D137" t="n">
         <v>61</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>63</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>2596</v>
       </c>
-      <c r="F137" t="n">
-        <v>0.02425876010781671</v>
+      <c r="G137" t="n">
+        <v>0.02426810477657935</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.02812018489984592</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.04776579352850539</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02349768875192604</v>
       </c>
     </row>
     <row r="138">
@@ -3197,16 +4849,28 @@
         <v>120</v>
       </c>
       <c r="C138" t="n">
+        <v>128</v>
+      </c>
+      <c r="D138" t="n">
         <v>54</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>66</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>2464</v>
       </c>
-      <c r="F138" t="n">
-        <v>0.02677484787018256</v>
+      <c r="G138" t="n">
+        <v>0.02678571428571428</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.03003246753246753</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.0487012987012987</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02191558441558442</v>
       </c>
     </row>
     <row r="139">
@@ -3217,16 +4881,28 @@
         <v>122</v>
       </c>
       <c r="C139" t="n">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D139" t="n">
         <v>61</v>
       </c>
       <c r="E139" t="n">
+        <v>61</v>
+      </c>
+      <c r="F139" t="n">
         <v>2433</v>
       </c>
-      <c r="F139" t="n">
-        <v>0.02506162695152013</v>
+      <c r="G139" t="n">
+        <v>0.02507192766132347</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.02918207973695027</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.05014385532264694</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02507192766132347</v>
       </c>
     </row>
     <row r="140">
@@ -3237,16 +4913,28 @@
         <v>85</v>
       </c>
       <c r="C140" t="n">
+        <v>95</v>
+      </c>
+      <c r="D140" t="n">
         <v>47</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>38</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>2086</v>
       </c>
-      <c r="F140" t="n">
-        <v>0.01820795400095831</v>
+      <c r="G140" t="n">
+        <v>0.01821668264621285</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.02301054650047939</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.04074784276126558</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02253116011505273</v>
       </c>
     </row>
     <row r="141">
@@ -3257,16 +4945,28 @@
         <v>77</v>
       </c>
       <c r="C141" t="n">
+        <v>91</v>
+      </c>
+      <c r="D141" t="n">
         <v>47</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>30</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>2131</v>
       </c>
-      <c r="F141" t="n">
-        <v>0.01407129455909944</v>
+      <c r="G141" t="n">
+        <v>0.01407789770061004</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.02064758329422806</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.03613327076489911</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02205537306428907</v>
       </c>
     </row>
     <row r="142">
@@ -3277,16 +4977,28 @@
         <v>84</v>
       </c>
       <c r="C142" t="n">
+        <v>91</v>
+      </c>
+      <c r="D142" t="n">
         <v>63</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>21</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>2065</v>
       </c>
-      <c r="F142" t="n">
-        <v>0.01016456921587609</v>
+      <c r="G142" t="n">
+        <v>0.01016949152542373</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0135593220338983</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.04067796610169491</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03050847457627119</v>
       </c>
     </row>
     <row r="143">
@@ -3297,16 +5009,28 @@
         <v>79</v>
       </c>
       <c r="C143" t="n">
+        <v>84</v>
+      </c>
+      <c r="D143" t="n">
         <v>60</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>19</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>2051</v>
       </c>
-      <c r="F143" t="n">
-        <v>0.009259259259259259</v>
+      <c r="G143" t="n">
+        <v>0.009263773768893223</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.01170160897123355</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.03851779619697709</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02925402242808386</v>
       </c>
     </row>
     <row r="144">
@@ -3317,16 +5041,28 @@
         <v>78</v>
       </c>
       <c r="C144" t="n">
+        <v>82</v>
+      </c>
+      <c r="D144" t="n">
         <v>35</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>43</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>1571</v>
       </c>
-      <c r="F144" t="n">
-        <v>0.02735368956743003</v>
+      <c r="G144" t="n">
+        <v>0.02737110120942075</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.02991725015913431</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.04964990451941439</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02227880330999363</v>
       </c>
     </row>
     <row r="145">
@@ -3337,16 +5073,28 @@
         <v>108</v>
       </c>
       <c r="C145" t="n">
+        <v>113</v>
+      </c>
+      <c r="D145" t="n">
         <v>70</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>38</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>2226</v>
       </c>
-      <c r="F145" t="n">
-        <v>0.01706331387516839</v>
+      <c r="G145" t="n">
+        <v>0.01707097933513028</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.01931716082659479</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.04851752021563342</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03144654088050314</v>
       </c>
     </row>
     <row r="146">
@@ -3357,16 +5105,28 @@
         <v>97</v>
       </c>
       <c r="C146" t="n">
+        <v>103</v>
+      </c>
+      <c r="D146" t="n">
         <v>66</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>31</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>2150</v>
       </c>
-      <c r="F146" t="n">
-        <v>0.01441190144119014</v>
+      <c r="G146" t="n">
+        <v>0.01441860465116279</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.01720930232558139</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.04511627906976744</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03069767441860465</v>
       </c>
     </row>
     <row r="147">
@@ -3377,16 +5137,28 @@
         <v>77</v>
       </c>
       <c r="C147" t="n">
+        <v>79</v>
+      </c>
+      <c r="D147" t="n">
         <v>47</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>30</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>1652</v>
       </c>
-      <c r="F147" t="n">
-        <v>0.01814882032667877</v>
+      <c r="G147" t="n">
+        <v>0.01815980629539951</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.01937046004842615</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.04661016949152542</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02845036319612591</v>
       </c>
     </row>
     <row r="148">
@@ -3397,16 +5169,28 @@
         <v>71</v>
       </c>
       <c r="C148" t="n">
+        <v>75</v>
+      </c>
+      <c r="D148" t="n">
         <v>39</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>32</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>1803</v>
       </c>
-      <c r="F148" t="n">
-        <v>0.01773835920177384</v>
+      <c r="G148" t="n">
+        <v>0.01774819744869662</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.01996672212978369</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.03937881308929562</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.021630615640599</v>
       </c>
     </row>
     <row r="149">
@@ -3417,16 +5201,28 @@
         <v>90</v>
       </c>
       <c r="C149" t="n">
+        <v>94</v>
+      </c>
+      <c r="D149" t="n">
         <v>36</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>54</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>1628</v>
       </c>
-      <c r="F149" t="n">
-        <v>0.03314917127071823</v>
+      <c r="G149" t="n">
+        <v>0.03316953316953317</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.03562653562653563</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.05528255528255528</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02211302211302211</v>
       </c>
     </row>
     <row r="150">
@@ -3437,16 +5233,28 @@
         <v>43</v>
       </c>
       <c r="C150" t="n">
+        <v>43</v>
+      </c>
+      <c r="D150" t="n">
         <v>30</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>13</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>1482</v>
       </c>
-      <c r="F150" t="n">
-        <v>0.008766014834794335</v>
+      <c r="G150" t="n">
+        <v>0.008771929824561403</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.008771929824561403</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.02901484480431849</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02024291497975709</v>
       </c>
     </row>
     <row r="151">
@@ -3457,16 +5265,28 @@
         <v>95</v>
       </c>
       <c r="C151" t="n">
+        <v>101</v>
+      </c>
+      <c r="D151" t="n">
         <v>44</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>51</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>2250</v>
       </c>
-      <c r="F151" t="n">
-        <v>0.02265659706796979</v>
+      <c r="G151" t="n">
+        <v>0.02266666666666667</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.02533333333333333</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.04222222222222222</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.01955555555555556</v>
       </c>
     </row>
     <row r="152">
@@ -3477,16 +5297,28 @@
         <v>142</v>
       </c>
       <c r="C152" t="n">
+        <v>153</v>
+      </c>
+      <c r="D152" t="n">
         <v>57</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>85</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>2558</v>
       </c>
-      <c r="F152" t="n">
-        <v>0.03321610003907777</v>
+      <c r="G152" t="n">
+        <v>0.03322908522283034</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.03752931978107897</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.05551211884284597</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02228303362001564</v>
       </c>
     </row>
     <row r="153">
@@ -3497,16 +5329,28 @@
         <v>106</v>
       </c>
       <c r="C153" t="n">
+        <v>113</v>
+      </c>
+      <c r="D153" t="n">
         <v>39</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>67</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>1879</v>
       </c>
-      <c r="F153" t="n">
-        <v>0.03563829787234043</v>
+      <c r="G153" t="n">
+        <v>0.03565726450239489</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.03938265034592869</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.0564129856306546</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02075572112825971</v>
       </c>
     </row>
     <row r="154">
@@ -3517,16 +5361,28 @@
         <v>96</v>
       </c>
       <c r="C154" t="n">
+        <v>104</v>
+      </c>
+      <c r="D154" t="n">
         <v>35</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>61</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>1787</v>
       </c>
-      <c r="F154" t="n">
-        <v>0.03411633109619687</v>
+      <c r="G154" t="n">
+        <v>0.03413542249580302</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.03861219921656407</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.05372132064913263</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0195858981533296</v>
       </c>
     </row>
     <row r="155">
@@ -3537,16 +5393,28 @@
         <v>122</v>
       </c>
       <c r="C155" t="n">
+        <v>132</v>
+      </c>
+      <c r="D155" t="n">
         <v>60</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>62</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>2407</v>
       </c>
-      <c r="F155" t="n">
-        <v>0.02574750830564784</v>
+      <c r="G155" t="n">
+        <v>0.02575820523473203</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.02991275446614042</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.05068550062318238</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02492729538845035</v>
       </c>
     </row>
     <row r="156">
@@ -3557,16 +5425,28 @@
         <v>83</v>
       </c>
       <c r="C156" t="n">
+        <v>85</v>
+      </c>
+      <c r="D156" t="n">
         <v>51</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>32</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>1896</v>
       </c>
-      <c r="F156" t="n">
-        <v>0.01686874011597259</v>
+      <c r="G156" t="n">
+        <v>0.01687763713080169</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.01793248945147679</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.04377637130801688</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02689873417721519</v>
       </c>
     </row>
     <row r="157">
@@ -3577,16 +5457,28 @@
         <v>80</v>
       </c>
       <c r="C157" t="n">
+        <v>88</v>
+      </c>
+      <c r="D157" t="n">
         <v>70</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>10</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>2178</v>
       </c>
-      <c r="F157" t="n">
-        <v>0.004589261128958238</v>
+      <c r="G157" t="n">
+        <v>0.004591368227731864</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.008264462809917356</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.03673094582185491</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03213957759412305</v>
       </c>
     </row>
     <row r="158">
@@ -3597,16 +5489,28 @@
         <v>62</v>
       </c>
       <c r="C158" t="n">
+        <v>74</v>
+      </c>
+      <c r="D158" t="n">
         <v>87</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>-25</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>2211</v>
       </c>
-      <c r="F158" t="n">
-        <v>-0.01130198915009042</v>
+      <c r="G158" t="n">
+        <v>-0.01130710085933967</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-0.005879692446856626</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.02804161013116237</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03934871099050204</v>
       </c>
     </row>
     <row r="159">
@@ -3617,16 +5521,28 @@
         <v>54</v>
       </c>
       <c r="C159" t="n">
+        <v>59</v>
+      </c>
+      <c r="D159" t="n">
         <v>49</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>5</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>1760</v>
       </c>
-      <c r="F159" t="n">
-        <v>0.002839295854628052</v>
+      <c r="G159" t="n">
+        <v>0.002840909090909091</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.005681818181818182</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.03068181818181818</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02784090909090909</v>
       </c>
     </row>
     <row r="160">
@@ -3637,16 +5553,28 @@
         <v>40</v>
       </c>
       <c r="C160" t="n">
+        <v>52</v>
+      </c>
+      <c r="D160" t="n">
         <v>82</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>-42</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>2183</v>
       </c>
-      <c r="F160" t="n">
-        <v>-0.01923076923076923</v>
+      <c r="G160" t="n">
+        <v>-0.01923957856161246</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.01374255611543747</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.01832340815391663</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03756298671552909</v>
       </c>
     </row>
     <row r="161">
@@ -3657,16 +5585,28 @@
         <v>55</v>
       </c>
       <c r="C161" t="n">
+        <v>62</v>
+      </c>
+      <c r="D161" t="n">
         <v>69</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>-14</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>2121</v>
       </c>
-      <c r="F161" t="n">
-        <v>-0.006597549481621112</v>
+      <c r="G161" t="n">
+        <v>-0.006600660066006601</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-0.0033003300330033</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.02593116454502593</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03253182461103253</v>
       </c>
     </row>
   </sheetData>
